--- a/server/static/templates/report with page.xlsx
+++ b/server/static/templates/report with page.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Главное" sheetId="1" r:id="rId1"/>
@@ -229,13 +229,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -557,21 +557,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -600,10 +600,10 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -653,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
